--- a/Noori/MortezaNouri.xlsx
+++ b/Noori/MortezaNouri.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t xml:space="preserve">نام:مرتضی نوری</t>
   </si>
   <si>
-    <t xml:space="preserve">گزارش کار از تاریخ 1400/06/25 تا تاریخ 1400/07/10</t>
+    <t xml:space="preserve">گزارش کار از تاریخ 1400/07/11 تا تاریخ 1400/07/20</t>
   </si>
   <si>
     <t xml:space="preserve">تاریخ</t>
@@ -40,100 +40,64 @@
     <t xml:space="preserve">ساعت</t>
   </si>
   <si>
-    <t xml:space="preserve">1400/06/25</t>
+    <t xml:space="preserve">1400/07/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک‌شنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویدیو آموزشی ریکت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انجام بخش داینامیک روتینگ پروژه گروهی- ویدیو آموزشی ریکت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه شنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چهارشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/15</t>
   </si>
   <si>
     <t xml:space="preserve">پنج شنبه</t>
   </si>
   <si>
-    <t xml:space="preserve">یادگیری مقدمات جاوا اسکریپت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/26</t>
+    <t xml:space="preserve">1400/07/16</t>
   </si>
   <si>
     <t xml:space="preserve">جمعه</t>
   </si>
   <si>
-    <t xml:space="preserve">کار بر روی پروژه فرانت اند فردی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/27</t>
+    <t xml:space="preserve">1400/07/17</t>
   </si>
   <si>
     <t xml:space="preserve">شنبه</t>
   </si>
   <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">یکشنبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دوشنبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">یادگیری مباحث پیشرفته جاوا اسکریپت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سه شنبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حل چند تمرین با جاوا اسکریپت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">چهارشنبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کار بر روی پروژه فرانت اند فردی – html – css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ویدیو آموزشی ریکت </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/06/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/07/10</t>
+    <t xml:space="preserve">1400/07/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/07/20</t>
   </si>
   <si>
     <t xml:space="preserve">مجموع ساعت کار:</t>
@@ -143,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -175,6 +140,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +209,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,8 +301,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D33" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A3:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D16" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="تاریخ"/>
     <tableColumn id="2" name="روز"/>
@@ -347,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,7 +361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -403,10 +372,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -417,10 +386,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -434,7 +403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -442,90 +411,90 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -533,230 +502,69 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0.0416666666666667</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="n">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="n">
         <f aca="false">SUM(Table1[ساعت])</f>
-        <v>0.875</v>
-      </c>
-    </row>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
